--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tnc-Cntn1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tnc-Cntn1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.07002266666666</v>
+        <v>0.1347866666666667</v>
       </c>
       <c r="H2">
-        <v>36.21006799999999</v>
+        <v>0.40436</v>
       </c>
       <c r="I2">
-        <v>0.7601982364861632</v>
+        <v>0.03419045085634245</v>
       </c>
       <c r="J2">
-        <v>0.7601982364861634</v>
+        <v>0.03419045085634244</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>3.547777972481333</v>
+        <v>0.03961824929333333</v>
       </c>
       <c r="R2">
-        <v>31.93000175233199</v>
+        <v>0.35656424364</v>
       </c>
       <c r="S2">
-        <v>0.7601982364861632</v>
+        <v>0.03419045085634245</v>
       </c>
       <c r="T2">
-        <v>0.7601982364861634</v>
+        <v>0.03419045085634244</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>3.924804</v>
       </c>
       <c r="I3">
-        <v>0.08239777620284613</v>
+        <v>0.3318597741685039</v>
       </c>
       <c r="J3">
-        <v>0.08239777620284613</v>
+        <v>0.3318597741685039</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -632,10 +632,10 @@
         <v>3.460888242396</v>
       </c>
       <c r="S3">
-        <v>0.08239777620284613</v>
+        <v>0.3318597741685039</v>
       </c>
       <c r="T3">
-        <v>0.08239777620284613</v>
+        <v>0.3318597741685039</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>7.49753</v>
       </c>
       <c r="I4">
-        <v>0.1574039873109905</v>
+        <v>0.6339497749751537</v>
       </c>
       <c r="J4">
-        <v>0.1574039873109906</v>
+        <v>0.6339497749751537</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -694,10 +694,10 @@
         <v>6.611314456470001</v>
       </c>
       <c r="S4">
-        <v>0.1574039873109905</v>
+        <v>0.6339497749751537</v>
       </c>
       <c r="T4">
-        <v>0.1574039873109906</v>
+        <v>0.6339497749751537</v>
       </c>
     </row>
   </sheetData>
